--- a/Common/ExcelDatas/Dialogs.xlsx
+++ b/Common/ExcelDatas/Dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_data\selfprogram\FreeGame\Common\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D9E292-D95F-4E01-9324-8307A322B194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC33614D-E75B-41BC-81D5-F98378022074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兄die，想开车么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄die，想开车么？按F确认，C取消。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,14 +428,14 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="3" width="20.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -476,11 +476,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
